--- a/Параметрическое исследование марш.xlsx
+++ b/Параметрическое исследование марш.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\11sem\Курсовой\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23962317-08E0-4838-95A6-242401FECB8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D71D918-2501-4324-91B2-A0865326B4DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="332" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="14670" yWindow="-195" windowWidth="25965" windowHeight="6495" tabRatio="332" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GG Сила (X) 1" sheetId="2" r:id="rId1"/>
@@ -1405,12 +1405,42 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Гидродинамическая сила сопротивления по оси ОХ</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.36223600174978127"/>
-          <c:y val="5.5555555555555552E-2"/>
+          <c:x val="0.19114640354669252"/>
+          <c:y val="1.7624269857324494E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1444,7 +1474,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.6942844456936199E-2"/>
+          <c:y val="9.3656967037353475E-2"/>
+          <c:w val="0.93265008165966501"/>
+          <c:h val="0.83075904619696839"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1474,44 +1514,8 @@
             <c:trendlineType val="poly"/>
             <c:order val="2"/>
             <c:intercept val="0"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-5.3864945837836721E-2"/>
-                  <c:y val="-4.1181390921467421E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="ru-RU"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:trendline>
             <c:spPr>
@@ -1531,10 +1535,132 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.6788357187002213"/>
-                  <c:y val="2.1293716104048108E-2"/>
+                  <c:x val="-0.53971296760099652"/>
+                  <c:y val="3.020133815494986E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="0">
+                        <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <a:t>Fx</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="ru-RU" sz="1400" baseline="0">
+                        <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <a:t> = 182</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="0">
+                        <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <a:t>,</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="ru-RU" sz="1400" baseline="0">
+                        <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <a:t>87</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="0">
+                        <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <a:t>*(V</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="ru-RU" sz="1400" baseline="0">
+                        <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <a:t>x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="0">
+                        <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <a:t>)</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="ru-RU" sz="1400" baseline="30000">
+                        <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <a:t>2</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="ru-RU" sz="1400" baseline="0">
+                        <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <a:t> - 33</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="0">
+                        <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <a:t>,</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="ru-RU" sz="1400" baseline="0">
+                        <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <a:t>012</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="0">
+                        <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <a:t>*V</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="ru-RU" sz="1400" baseline="0">
+                        <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <a:t>x</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="ru-RU" sz="1400" baseline="0">
+                        <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                    </a:br>
+                    <a:endParaRPr lang="ru-RU" sz="1400">
+                      <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                      <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1979,6 +2105,74 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Скорость набегающего потока, м/с</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.32252815893989972"/>
+              <c:y val="0.86640341385348607"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2044,6 +2238,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Сила сопротивления, Н</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2087,37 +2341,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3359,13 +3582,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>487383</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>86591</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>404503</xdr:colOff>
+      <xdr:colOff>676274</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>63458</xdr:rowOff>
     </xdr:to>
@@ -3718,8 +3941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:AB13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S39" sqref="S39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4386,107 +4609,107 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <f xml:space="preserve"> 1.8287*(C3)^2 - 3.3012*C3</f>
+        <f t="shared" ref="C12:AB12" si="3" xml:space="preserve"> 1.8287*(C3)^2 - 3.3012*C3</f>
         <v>0</v>
       </c>
       <c r="D12">
-        <f xml:space="preserve"> 1.8287*(D3)^2 - 3.3012*D3</f>
+        <f t="shared" si="3"/>
         <v>-0.31183300000000003</v>
       </c>
       <c r="E12">
-        <f xml:space="preserve"> 1.8287*(E3)^2 - 3.3012*E3</f>
+        <f t="shared" si="3"/>
         <v>-0.58709200000000006</v>
       </c>
       <c r="F12">
-        <f xml:space="preserve"> 1.8287*(F3)^2 - 3.3012*F3</f>
+        <f t="shared" si="3"/>
         <v>-0.82577699999999998</v>
       </c>
       <c r="G12">
-        <f xml:space="preserve"> 1.8287*(G3)^2 - 3.3012*G3</f>
+        <f t="shared" si="3"/>
         <v>-1.0278879999999999</v>
       </c>
       <c r="H12">
-        <f xml:space="preserve"> 1.8287*(H3)^2 - 3.3012*H3</f>
+        <f t="shared" si="3"/>
         <v>-1.193425</v>
       </c>
       <c r="I12">
-        <f xml:space="preserve"> 1.8287*(I3)^2 - 3.3012*I3</f>
+        <f t="shared" si="3"/>
         <v>-1.3223880000000001</v>
       </c>
       <c r="J12">
-        <f xml:space="preserve"> 1.8287*(J3)^2 - 3.3012*J3</f>
+        <f t="shared" si="3"/>
         <v>-1.414777</v>
       </c>
       <c r="K12">
-        <f xml:space="preserve"> 1.8287*(K3)^2 - 3.3012*K3</f>
+        <f t="shared" si="3"/>
         <v>-1.4705919999999999</v>
       </c>
       <c r="L12">
-        <f xml:space="preserve"> 1.8287*(L3)^2 - 3.3012*L3</f>
+        <f t="shared" si="3"/>
         <v>-1.4898330000000002</v>
       </c>
       <c r="M12">
-        <f xml:space="preserve"> 1.8287*(M3)^2 - 3.3012*M3</f>
+        <f t="shared" si="3"/>
         <v>-1.4725000000000001</v>
       </c>
       <c r="N12">
-        <f xml:space="preserve"> 1.8287*(N3)^2 - 3.3012*N3</f>
+        <f t="shared" si="3"/>
         <v>-1.4185930000000004</v>
       </c>
       <c r="O12">
-        <f xml:space="preserve"> 1.8287*(O3)^2 - 3.3012*O3</f>
+        <f t="shared" si="3"/>
         <v>-1.328112</v>
       </c>
       <c r="P12">
-        <f xml:space="preserve"> 1.8287*(P3)^2 - 3.3012*P3</f>
+        <f t="shared" si="3"/>
         <v>-1.201057</v>
       </c>
       <c r="Q12">
-        <f xml:space="preserve"> 1.8287*(Q3)^2 - 3.3012*Q3</f>
+        <f t="shared" si="3"/>
         <v>-1.0374280000000002</v>
       </c>
       <c r="R12">
-        <f xml:space="preserve"> 1.8287*(R3)^2 - 3.3012*R3</f>
+        <f t="shared" si="3"/>
         <v>-0.83722500000000011</v>
       </c>
       <c r="S12">
-        <f xml:space="preserve"> 1.8287*(S3)^2 - 3.3012*S3</f>
+        <f t="shared" si="3"/>
         <v>-0.6004479999999992</v>
       </c>
       <c r="T12">
-        <f xml:space="preserve"> 1.8287*(T3)^2 - 3.3012*T3</f>
+        <f t="shared" si="3"/>
         <v>-0.32709700000000108</v>
       </c>
       <c r="U12">
-        <f xml:space="preserve"> 1.8287*(U3)^2 - 3.3012*U3</f>
+        <f t="shared" si="3"/>
         <v>-1.7172000000000409E-2</v>
       </c>
       <c r="V12">
-        <f xml:space="preserve"> 1.8287*(V3)^2 - 3.3012*V3</f>
+        <f t="shared" si="3"/>
         <v>0.32932699999999926</v>
       </c>
       <c r="W12">
-        <f xml:space="preserve"> 1.8287*(W3)^2 - 3.3012*W3</f>
+        <f t="shared" si="3"/>
         <v>0.7123999999999997</v>
       </c>
       <c r="X12">
-        <f xml:space="preserve"> 1.8287*(X3)^2 - 3.3012*X3</f>
+        <f t="shared" si="3"/>
         <v>1.132047</v>
       </c>
       <c r="Y12">
-        <f xml:space="preserve"> 1.8287*(Y3)^2 - 3.3012*Y3</f>
+        <f t="shared" si="3"/>
         <v>1.5882679999999993</v>
       </c>
       <c r="Z12">
-        <f xml:space="preserve"> 1.8287*(Z3)^2 - 3.3012*Z3</f>
+        <f t="shared" si="3"/>
         <v>2.0810629999999994</v>
       </c>
       <c r="AA12">
-        <f xml:space="preserve"> 1.8287*(AA3)^2 - 3.3012*AA3</f>
+        <f t="shared" si="3"/>
         <v>2.6104320000000003</v>
       </c>
       <c r="AB12">
-        <f xml:space="preserve"> 1.8287*(AB3)^2 - 3.3012*AB3</f>
+        <f t="shared" si="3"/>
         <v>3.1763750000000002</v>
       </c>
     </row>
@@ -4499,103 +4722,103 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <f t="shared" ref="D13:AB13" si="3" xml:space="preserve"> 182.87*(D$3)^2 - 33.012*D$3</f>
+        <f t="shared" ref="D13:AB13" si="4" xml:space="preserve"> 182.87*(D$3)^2 - 33.012*D$3</f>
         <v>-1.4724999999999997</v>
       </c>
       <c r="E13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.71240000000000148</v>
       </c>
       <c r="F13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.5547000000000022</v>
       </c>
       <c r="G13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.054400000000008</v>
       </c>
       <c r="H13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>29.211500000000001</v>
       </c>
       <c r="I13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>46.02600000000001</v>
       </c>
       <c r="J13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>66.497899999999987</v>
       </c>
       <c r="K13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>90.62720000000003</v>
       </c>
       <c r="L13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>118.41390000000001</v>
       </c>
       <c r="M13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>149.858</v>
       </c>
       <c r="N13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>184.95950000000005</v>
       </c>
       <c r="O13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>223.71840000000003</v>
       </c>
       <c r="P13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>266.13470000000007</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>312.20839999999998</v>
       </c>
       <c r="R13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>361.93949999999995</v>
       </c>
       <c r="S13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>415.32800000000009</v>
       </c>
       <c r="T13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>472.37389999999994</v>
       </c>
       <c r="U13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>533.07720000000006</v>
       </c>
       <c r="V13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>597.43790000000001</v>
       </c>
       <c r="W13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>665.45600000000002</v>
       </c>
       <c r="X13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>737.13150000000007</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>812.46440000000018</v>
       </c>
       <c r="Z13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>891.45469999999989</v>
       </c>
       <c r="AA13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>974.1024000000001</v>
       </c>
       <c r="AB13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1060.4075</v>
       </c>
     </row>
